--- a/alvinafbarboza_1.xlsx
+++ b/alvinafbarboza_1.xlsx
@@ -649,7 +649,11 @@
       <c r="A22" t="n">
         <v>556799518774</v>
       </c>
-      <c r="B22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Fer</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -657,7 +661,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Gourmet</t>
+          <t>Fer</t>
         </is>
       </c>
     </row>
@@ -895,7 +899,11 @@
       <c r="A47" t="n">
         <v>556796712129</v>
       </c>
-      <c r="B47" t="inlineStr"/>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Premium</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -933,7 +941,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Dito</t>
+          <t>Seu</t>
         </is>
       </c>
     </row>
@@ -943,7 +951,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Helio</t>
+          <t>Seu</t>
         </is>
       </c>
     </row>
@@ -973,7 +981,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Nelson</t>
+          <t>Sr</t>
         </is>
       </c>
     </row>
